--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed4/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>5.761699999999998</v>
+        <v>5.623499999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.61549999999999</v>
+        <v>5.823699999999992</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.515499999999994</v>
+        <v>-6.803199999999995</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.743500000000003</v>
+        <v>4.742500000000001</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.012999999999991</v>
+        <v>-8.703499999999993</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.5979</v>
+        <v>-12.6072</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.43979999999998</v>
+        <v>-20.43219999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-12.52150000000001</v>
+        <v>-12.65460000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.123099999999998</v>
+        <v>-6.412399999999998</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -618,13 +618,13 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.398099999999997</v>
+        <v>5.3958</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.507200000000001</v>
+        <v>-8.324000000000005</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.4248</v>
+        <v>5.500300000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-21.93960000000002</v>
+        <v>-21.88790000000002</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.82439999999999</v>
+        <v>-19.94969999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.80820000000001</v>
+        <v>-22.72160000000001</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.98590000000001</v>
+        <v>-22.04360000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.601499999999992</v>
+        <v>5.790299999999994</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.40779999999999</v>
+        <v>-11.8654</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.7411</v>
+        <v>-7.592700000000003</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -862,7 +862,7 @@
         <v>-14.32</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.373099999999996</v>
+        <v>-8.091099999999994</v>
       </c>
       <c r="E25" t="n">
         <v>15.03</v>
